--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Lrpap1-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Lrpap1-Lrp1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.652167666666666</v>
+        <v>5.313941333333333</v>
       </c>
       <c r="H2">
-        <v>16.956503</v>
+        <v>15.941824</v>
       </c>
       <c r="I2">
-        <v>0.186032906594887</v>
+        <v>0.176869630377001</v>
       </c>
       <c r="J2">
-        <v>0.186032906594887</v>
+        <v>0.176869630377001</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>21.08181366666667</v>
+        <v>3.456265333333333</v>
       </c>
       <c r="N2">
-        <v>63.245441</v>
+        <v>10.368796</v>
       </c>
       <c r="O2">
-        <v>0.0571606014598545</v>
+        <v>0.009841535807677501</v>
       </c>
       <c r="P2">
-        <v>0.0571606014598545</v>
+        <v>0.0098415358076775</v>
       </c>
       <c r="Q2">
-        <v>119.1579455614248</v>
+        <v>18.36639121376711</v>
       </c>
       <c r="R2">
-        <v>1072.421510052823</v>
+        <v>165.297520923904</v>
       </c>
       <c r="S2">
-        <v>0.01063375283228867</v>
+        <v>0.001740668800645939</v>
       </c>
       <c r="T2">
-        <v>0.01063375283228868</v>
+        <v>0.001740668800645939</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.652167666666666</v>
+        <v>5.313941333333333</v>
       </c>
       <c r="H3">
-        <v>16.956503</v>
+        <v>15.941824</v>
       </c>
       <c r="I3">
-        <v>0.186032906594887</v>
+        <v>0.176869630377001</v>
       </c>
       <c r="J3">
-        <v>0.186032906594887</v>
+        <v>0.176869630377001</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>904.800446</v>
       </c>
       <c r="O3">
-        <v>0.8177496571571792</v>
+        <v>0.8587907398420774</v>
       </c>
       <c r="P3">
-        <v>0.8177496571571792</v>
+        <v>0.8587907398420773</v>
       </c>
       <c r="Q3">
-        <v>1704.694608555593</v>
+        <v>1602.685496139278</v>
       </c>
       <c r="R3">
-        <v>15342.25147700034</v>
+        <v>14424.1694652535</v>
       </c>
       <c r="S3">
-        <v>0.1521283455879224</v>
+        <v>0.1518940007270594</v>
       </c>
       <c r="T3">
-        <v>0.1521283455879224</v>
+        <v>0.1518940007270594</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.652167666666666</v>
+        <v>5.313941333333333</v>
       </c>
       <c r="H4">
-        <v>16.956503</v>
+        <v>15.941824</v>
       </c>
       <c r="I4">
-        <v>0.186032906594887</v>
+        <v>0.176869630377001</v>
       </c>
       <c r="J4">
-        <v>0.186032906594887</v>
+        <v>0.176869630377001</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>138.405749</v>
       </c>
       <c r="O4">
-        <v>0.1250897413829664</v>
+        <v>0.1313677243502452</v>
       </c>
       <c r="P4">
-        <v>0.1250897413829664</v>
+        <v>0.1313677243502452</v>
       </c>
       <c r="Q4">
-        <v>260.7641664595275</v>
+        <v>245.1600101273529</v>
       </c>
       <c r="R4">
-        <v>2346.877498135747</v>
+        <v>2206.440091146176</v>
       </c>
       <c r="S4">
-        <v>0.02327080817467595</v>
+        <v>0.02323496084929562</v>
       </c>
       <c r="T4">
-        <v>0.02327080817467595</v>
+        <v>0.02323496084929561</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>49.221867</v>
       </c>
       <c r="I5">
-        <v>0.5400221369958743</v>
+        <v>0.5461014638447835</v>
       </c>
       <c r="J5">
-        <v>0.5400221369958743</v>
+        <v>0.5461014638447835</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>21.08181366666667</v>
+        <v>3.456265333333333</v>
       </c>
       <c r="N5">
-        <v>63.245441</v>
+        <v>10.368796</v>
       </c>
       <c r="O5">
-        <v>0.0571606014598545</v>
+        <v>0.009841535807677501</v>
       </c>
       <c r="P5">
-        <v>0.0571606014598545</v>
+        <v>0.0098415358076775</v>
       </c>
       <c r="Q5">
-        <v>345.8954094731497</v>
+        <v>56.70794418468134</v>
       </c>
       <c r="R5">
-        <v>3113.058685258347</v>
+        <v>510.371497662132</v>
       </c>
       <c r="S5">
-        <v>0.03086799015232012</v>
+        <v>0.005374477111053538</v>
       </c>
       <c r="T5">
-        <v>0.03086799015232012</v>
+        <v>0.005374477111053537</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>49.221867</v>
       </c>
       <c r="I6">
-        <v>0.5400221369958743</v>
+        <v>0.5461014638447835</v>
       </c>
       <c r="J6">
-        <v>0.5400221369958743</v>
+        <v>0.5461014638447835</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>904.800446</v>
       </c>
       <c r="O6">
-        <v>0.8177496571571792</v>
+        <v>0.8587907398420774</v>
       </c>
       <c r="P6">
-        <v>0.8177496571571792</v>
+        <v>0.8587907398420773</v>
       </c>
       <c r="Q6">
         <v>4948.440801616965</v>
@@ -818,10 +818,10 @@
         <v>44535.96721455269</v>
       </c>
       <c r="S6">
-        <v>0.4416029173856635</v>
+        <v>0.4689868801641032</v>
       </c>
       <c r="T6">
-        <v>0.4416029173856635</v>
+        <v>0.4689868801641031</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>49.221867</v>
       </c>
       <c r="I7">
-        <v>0.5400221369958743</v>
+        <v>0.5461014638447835</v>
       </c>
       <c r="J7">
-        <v>0.5400221369958743</v>
+        <v>0.5461014638447835</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>138.405749</v>
       </c>
       <c r="O7">
-        <v>0.1250897413829664</v>
+        <v>0.1313677243502452</v>
       </c>
       <c r="P7">
-        <v>0.1250897413829664</v>
+        <v>0.1313677243502452</v>
       </c>
       <c r="Q7">
         <v>756.9543743681539</v>
@@ -880,10 +880,10 @@
         <v>6812.589369313384</v>
       </c>
       <c r="S7">
-        <v>0.06755122945789074</v>
+        <v>0.07174010656962691</v>
       </c>
       <c r="T7">
-        <v>0.06755122945789074</v>
+        <v>0.0717401065696269</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>24.969499</v>
       </c>
       <c r="I8">
-        <v>0.2739449564092387</v>
+        <v>0.2770289057782155</v>
       </c>
       <c r="J8">
-        <v>0.2739449564092387</v>
+        <v>0.2770289057782155</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>21.08181366666667</v>
+        <v>3.456265333333333</v>
       </c>
       <c r="N8">
-        <v>63.245441</v>
+        <v>10.368796</v>
       </c>
       <c r="O8">
-        <v>0.0571606014598545</v>
+        <v>0.009841535807677501</v>
       </c>
       <c r="P8">
-        <v>0.0571606014598545</v>
+        <v>0.0098415358076775</v>
       </c>
       <c r="Q8">
-        <v>175.4674417560065</v>
+        <v>28.76707126146711</v>
       </c>
       <c r="R8">
-        <v>1579.206975804059</v>
+        <v>258.903641353204</v>
       </c>
       <c r="S8">
-        <v>0.01565885847524571</v>
+        <v>0.002726389895978025</v>
       </c>
       <c r="T8">
-        <v>0.01565885847524571</v>
+        <v>0.002726389895978024</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>24.969499</v>
       </c>
       <c r="I9">
-        <v>0.2739449564092387</v>
+        <v>0.2770289057782155</v>
       </c>
       <c r="J9">
-        <v>0.2739449564092387</v>
+        <v>0.2770289057782155</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>904.800446</v>
       </c>
       <c r="O9">
-        <v>0.8177496571571792</v>
+        <v>0.8587907398420774</v>
       </c>
       <c r="P9">
-        <v>0.8177496571571792</v>
+        <v>0.8587907398420773</v>
       </c>
       <c r="Q9">
         <v>2510.268203510728</v>
@@ -1004,10 +1004,10 @@
         <v>22592.41383159655</v>
       </c>
       <c r="S9">
-        <v>0.2240183941835933</v>
+        <v>0.2379098589509149</v>
       </c>
       <c r="T9">
-        <v>0.2240183941835933</v>
+        <v>0.2379098589509148</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>24.969499</v>
       </c>
       <c r="I10">
-        <v>0.2739449564092387</v>
+        <v>0.2770289057782155</v>
       </c>
       <c r="J10">
-        <v>0.2739449564092387</v>
+        <v>0.2770289057782155</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>138.405749</v>
       </c>
       <c r="O10">
-        <v>0.1250897413829664</v>
+        <v>0.1313677243502452</v>
       </c>
       <c r="P10">
-        <v>0.1250897413829664</v>
+        <v>0.1313677243502452</v>
       </c>
       <c r="Q10">
         <v>383.9913568055279</v>
@@ -1066,10 +1066,10 @@
         <v>3455.922211249751</v>
       </c>
       <c r="S10">
-        <v>0.03426770375039966</v>
+        <v>0.03639265693132267</v>
       </c>
       <c r="T10">
-        <v>0.03426770375039966</v>
+        <v>0.03639265693132266</v>
       </c>
     </row>
   </sheetData>
